--- a/test/org/hy/common/report/junit/normal/JU_ReportNormal.xlsx
+++ b/test/org/hy/common/report/junit/normal/JU_ReportNormal.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17295" windowHeight="9405" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17300" windowHeight="9400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="常规列表加合计的演示" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -54,7 +53,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -97,6 +96,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -199,7 +206,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -222,11 +229,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -563,26 +573,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="5"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -590,15 +600,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -606,17 +616,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
-    </row>
-    <row r="6" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/test/org/hy/common/report/junit/normal/JU_ReportNormal.xlsx
+++ b/test/org/hy/common/report/junit/normal/JU_ReportNormal.xlsx
@@ -1,21 +1,84 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace_SearchDesktop\hy.common.report\test\org\hy\common\report\junit\normal\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17300" windowHeight="9400" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17295" windowHeight="9405" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="常规列表加合计的演示" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ZhengWei</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>ZhengWei:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0987654321</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>ZhengWei:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1234567890</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -53,7 +116,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -104,6 +167,19 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -217,6 +293,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -229,14 +308,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -572,27 +648,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="6"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -600,25 +676,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -629,6 +705,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
